--- a/DatabaseProject.xlsx
+++ b/DatabaseProject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciszek.rybski\Documents\WSEI\SEM4\Programowanie Obiektowe\ProjektZaliczenie\ProjectApplication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FB7562-2D34-4949-8848-4496D960843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC822C18-767A-4E77-88B3-F25D9331A98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{606C8F2C-F694-4CBB-B057-B0009C32C256}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{606C8F2C-F694-4CBB-B057-B0009C32C256}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>Phone</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>LifeguardID</t>
+  </si>
+  <si>
+    <t>Response Time</t>
+  </si>
+  <si>
+    <t>&lt;10 min</t>
+  </si>
+  <si>
+    <t>15 min</t>
   </si>
 </sst>
 </file>
@@ -102,8 +111,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -115,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,12 +140,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,26 +261,34 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,28 +298,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -623,410 +618,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18EDB0C-57F4-4FD5-B85E-87032CF97961}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" customWidth="1"/>
-    <col min="4" max="4" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
-    <col min="7" max="7" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.73046875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="J2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>222222222</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="13">
         <v>44730</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="14">
         <v>0.72222222222222221</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>44730</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="J4" s="9">
         <v>2</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
+      <c r="K4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="16">
-        <v>3</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16">
-        <v>4</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="16">
-        <v>5</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>668489499</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="16">
-        <v>7</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="16">
-        <v>8</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="16">
-        <v>9</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="16">
-        <v>10</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="16">
-        <v>11</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="16">
-        <v>12</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="16">
-        <v>13</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="16">
-        <v>14</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="17">
-        <v>15</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7">
-        <v>668489499</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1036,7 +1058,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
